--- a/Pandas/example.xlsx
+++ b/Pandas/example.xlsx
@@ -455,13 +455,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1127274858318816</v>
+        <v>-0.4327446099648847</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.8521821293304938</v>
+        <v>0.9656699057541265</v>
       </c>
       <c r="D2" t="n">
-        <v>0.516516091103023</v>
+        <v>-2.036863191035725</v>
       </c>
     </row>
     <row r="3">
@@ -469,13 +469,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.4333983640285895</v>
+        <v>-1.249351949259885</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.9849490008086923</v>
+        <v>0.3443566484798874</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.034146090566608</v>
+        <v>-2.474597763652843</v>
       </c>
     </row>
     <row r="4">
@@ -483,13 +483,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.757471006723961</v>
+        <v>0.9352610569346758</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.632944010228034</v>
+        <v>-0.2301062176073221</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.2504117030380819</v>
+        <v>1.063478506335634</v>
       </c>
     </row>
     <row r="5">
@@ -497,13 +497,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5913076608451093</v>
+        <v>-1.451353218888293</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8227728509655292</v>
+        <v>0.471227787944553</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.074362526598689</v>
+        <v>-0.1255353691454911</v>
       </c>
     </row>
     <row r="6">
@@ -511,13 +511,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.544388733037563</v>
+        <v>0.2843213772961293</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9705911204913376</v>
+        <v>1.877195150660891</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.887918477375481</v>
+        <v>-0.1178451417832252</v>
       </c>
     </row>
     <row r="7">
@@ -525,13 +525,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.07448042955241616</v>
+        <v>-0.06335303158712335</v>
       </c>
       <c r="C7" t="n">
-        <v>-2.044458186232685</v>
+        <v>0.1811664160673357</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.1194210971103427</v>
+        <v>0.3594662023670319</v>
       </c>
     </row>
     <row r="8">
@@ -539,13 +539,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.002763875494118507</v>
+        <v>0.3178923360579946</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4487586863413003</v>
+        <v>1.4807405099547</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.3625563069441513</v>
+        <v>3.06087987849943</v>
       </c>
     </row>
     <row r="9">
@@ -553,13 +553,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.8017716325496732</v>
+        <v>-0.5888244274039428</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.5415056751165012</v>
+        <v>-0.2526322603786085</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7452754997753239</v>
+        <v>1.143597111009226</v>
       </c>
     </row>
     <row r="10">
@@ -567,13 +567,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.2832157357703154</v>
+        <v>1.14803603261162</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.617962503447743</v>
+        <v>-0.2641515941357349</v>
       </c>
       <c r="D10" t="n">
-        <v>1.960317429647856</v>
+        <v>0.8886310940066586</v>
       </c>
     </row>
     <row r="11">
@@ -581,13 +581,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.9234023745628623</v>
+        <v>-0.2339969677262494</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.6904842812452572</v>
+        <v>0.8930458028748797</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8191737712264254</v>
+        <v>-0.7434671087450455</v>
       </c>
     </row>
     <row r="12">
@@ -595,13 +595,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.008529118635802064</v>
+        <v>-0.006144586449767041</v>
       </c>
       <c r="C12" t="n">
-        <v>1.762633830161567</v>
+        <v>-0.5655358898960008</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.6732008328498806</v>
+        <v>1.455352352080559</v>
       </c>
     </row>
     <row r="13">
@@ -609,13 +609,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.2082596974167763</v>
+        <v>-1.077125098074472</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4624181485939719</v>
+        <v>1.248657527175467</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.03464762038800216</v>
+        <v>-0.5842367593102341</v>
       </c>
     </row>
     <row r="14">
@@ -623,13 +623,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1.529851944418186</v>
+        <v>0.5630100989800955</v>
       </c>
       <c r="C14" t="n">
-        <v>0.08156415500497359</v>
+        <v>-0.143142043364105</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5449771571354799</v>
+        <v>0.01284256894295984</v>
       </c>
     </row>
     <row r="15">
@@ -637,13 +637,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2.45727521600244</v>
+        <v>0.9943624034094494</v>
       </c>
       <c r="C15" t="n">
-        <v>2.058216076766681</v>
+        <v>-1.086833347794027</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.5250795141248503</v>
+        <v>2.113865939584626</v>
       </c>
     </row>
     <row r="16">
@@ -651,13 +651,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9465202765645819</v>
+        <v>-0.6922027706467441</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3559534573378486</v>
+        <v>-0.8224767033551271</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4555938004880029</v>
+        <v>0.8379652833474394</v>
       </c>
     </row>
     <row r="17">
@@ -665,13 +665,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-1.03015340247398</v>
+        <v>0.1475237816920254</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6932519622493463</v>
+        <v>2.125185836927785</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4443123089027502</v>
+        <v>0.4076469935554574</v>
       </c>
     </row>
     <row r="18">
@@ -679,13 +679,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.6163962378878383</v>
+        <v>-0.5628744832476885</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9365579172375996</v>
+        <v>-2.132454807813633</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.3235369507204814</v>
+        <v>0.8598967236148349</v>
       </c>
     </row>
     <row r="19">
@@ -693,13 +693,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.524951169263578</v>
+        <v>-0.4113551432555159</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.7655501658296692</v>
+        <v>1.221438214451209</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.6016123701143266</v>
+        <v>-1.276326067231332</v>
       </c>
     </row>
     <row r="20">
@@ -707,13 +707,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.9533094830200445</v>
+        <v>0.1605055632645576</v>
       </c>
       <c r="C20" t="n">
-        <v>-1.285106147870972</v>
+        <v>-2.090573103383293</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6209545199754102</v>
+        <v>-1.483131061538728</v>
       </c>
     </row>
     <row r="21">
@@ -721,13 +721,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.3362800972823124</v>
+        <v>-1.36182156617943</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.5840447054741844</v>
+        <v>0.7323819641246141</v>
       </c>
       <c r="D21" t="n">
-        <v>1.404851770068467</v>
+        <v>-0.7993037848532567</v>
       </c>
     </row>
     <row r="22">
@@ -735,13 +735,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.4310939167740706</v>
+        <v>-0.5608554348083739</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.8314317909079765</v>
+        <v>-0.9144723032299593</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8004491039971077</v>
+        <v>0.2627844400457866</v>
       </c>
     </row>
     <row r="23">
@@ -749,13 +749,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.4964532966709153</v>
+        <v>-1.040541272154424</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.1582472803530023</v>
+        <v>0.5781912549035096</v>
       </c>
       <c r="D23" t="n">
-        <v>1.101027227536314</v>
+        <v>0.7088175079935793</v>
       </c>
     </row>
     <row r="24">
@@ -763,13 +763,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.3024648570781436</v>
+        <v>-0.6295304723779372</v>
       </c>
       <c r="C24" t="n">
-        <v>-1.553523722992955</v>
+        <v>2.400570950544989</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.2177600709289816</v>
+        <v>0.1721224007943505</v>
       </c>
     </row>
     <row r="25">
@@ -777,13 +777,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.1979871718209003</v>
+        <v>-0.004529068680489292</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.06247743381548918</v>
+        <v>-0.1538776568103717</v>
       </c>
       <c r="D25" t="n">
-        <v>1.257851477313127</v>
+        <v>0.4412495218580234</v>
       </c>
     </row>
     <row r="26">
@@ -791,13 +791,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.3625247274411347</v>
+        <v>1.15219855000305</v>
       </c>
       <c r="C26" t="n">
-        <v>2.252743985567621</v>
+        <v>-0.4545295729207584</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.706517643224997</v>
+        <v>-0.6428473833470026</v>
       </c>
     </row>
     <row r="27">
@@ -805,13 +805,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1.371412095667538</v>
+        <v>0.2821064840777402</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.481766050185977</v>
+        <v>-0.6120931985279864</v>
       </c>
       <c r="D27" t="n">
-        <v>-1.415522480402496</v>
+        <v>0.9936767750677495</v>
       </c>
     </row>
     <row r="28">
@@ -819,13 +819,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.7020642520168278</v>
+        <v>1.505658973918112</v>
       </c>
       <c r="C28" t="n">
-        <v>-1.189374413804246</v>
+        <v>-0.04667752858005635</v>
       </c>
       <c r="D28" t="n">
-        <v>-1.29324959459836</v>
+        <v>0.3031431377224015</v>
       </c>
     </row>
     <row r="29">
@@ -833,13 +833,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>2.865731585714363</v>
+        <v>-2.287033796633189</v>
       </c>
       <c r="C29" t="n">
-        <v>0.8521486028795674</v>
+        <v>-1.408521777124262</v>
       </c>
       <c r="D29" t="n">
-        <v>0.8910398353238598</v>
+        <v>0.4247481425035224</v>
       </c>
     </row>
     <row r="30">
@@ -847,13 +847,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.8082293712991767</v>
+        <v>0.7152559570048</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2560239787599496</v>
+        <v>-0.1269511958863631</v>
       </c>
       <c r="D30" t="n">
-        <v>0.2196111007359909</v>
+        <v>1.134174546971945</v>
       </c>
     </row>
     <row r="31">
@@ -861,13 +861,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-2.208334535341541</v>
+        <v>-0.3199900108025094</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.8379706546245079</v>
+        <v>0.2846256879189122</v>
       </c>
       <c r="D31" t="n">
-        <v>-1.133612044396729</v>
+        <v>-0.5124999998021045</v>
       </c>
     </row>
     <row r="32">
@@ -875,13 +875,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-2.253355231608444</v>
+        <v>0.330831147830555</v>
       </c>
       <c r="C32" t="n">
-        <v>0.9399460423170989</v>
+        <v>0.639080813376205</v>
       </c>
       <c r="D32" t="n">
-        <v>-1.84879386921865</v>
+        <v>-0.5569376302549909</v>
       </c>
     </row>
     <row r="33">
@@ -889,13 +889,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.9727656235523812</v>
+        <v>-0.5229953520363618</v>
       </c>
       <c r="C33" t="n">
-        <v>0.4418032832355667</v>
+        <v>0.6391101100352722</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.2465350372080362</v>
+        <v>-0.6140333042912492</v>
       </c>
     </row>
     <row r="34">
@@ -903,13 +903,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.8255740478738386</v>
+        <v>-2.400203982824979</v>
       </c>
       <c r="C34" t="n">
-        <v>-1.872370616516103</v>
+        <v>-0.526569383265346</v>
       </c>
       <c r="D34" t="n">
-        <v>0.5779841260036712</v>
+        <v>0.05582281039873539</v>
       </c>
     </row>
     <row r="35">
@@ -917,13 +917,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.1878851531712889</v>
+        <v>1.122538305619178</v>
       </c>
       <c r="C35" t="n">
-        <v>-1.37983101823797</v>
+        <v>0.6768883047101077</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.8887979280630174</v>
+        <v>-1.69477071357708</v>
       </c>
     </row>
     <row r="36">
@@ -931,13 +931,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>-1.454755155067235</v>
+        <v>-0.06371975577945009</v>
       </c>
       <c r="C36" t="n">
-        <v>1.137999392199105</v>
+        <v>-0.4493298231047195</v>
       </c>
       <c r="D36" t="n">
-        <v>0.07741993091973901</v>
+        <v>0.9025949521409127</v>
       </c>
     </row>
     <row r="37">
@@ -945,13 +945,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.2427354832340647</v>
+        <v>1.833005951311342</v>
       </c>
       <c r="C37" t="n">
-        <v>-1.266726865434962</v>
+        <v>-1.297216103800771</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.721893755590069</v>
+        <v>-1.267439051105268</v>
       </c>
     </row>
     <row r="38">
@@ -959,13 +959,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.003754369132147255</v>
+        <v>-0.9072089484599959</v>
       </c>
       <c r="C38" t="n">
-        <v>-1.313841874768356</v>
+        <v>-0.02143473439084831</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.079893709031906</v>
+        <v>0.7559464589153049</v>
       </c>
     </row>
     <row r="39">
@@ -973,13 +973,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>-1.946374709812424</v>
+        <v>0.4470460296882773</v>
       </c>
       <c r="C39" t="n">
-        <v>0.8479045788220071</v>
+        <v>1.447339380819842</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.4482613673123574</v>
+        <v>-1.176496900761238</v>
       </c>
     </row>
     <row r="40">
@@ -987,13 +987,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>-0.5787787606509978</v>
+        <v>-0.3243107111666934</v>
       </c>
       <c r="C40" t="n">
-        <v>1.254346644388425</v>
+        <v>-3.002538305315062</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.1174512230066858</v>
+        <v>1.519501045186793</v>
       </c>
     </row>
     <row r="41">
@@ -1001,13 +1001,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.4329062579956877</v>
+        <v>-0.5677490916479072</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.2130610910797134</v>
+        <v>-0.2431048516660492</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4542151303275136</v>
+        <v>0.2264107239942202</v>
       </c>
     </row>
     <row r="42">
@@ -1015,13 +1015,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1.107824044580062</v>
+        <v>-0.8601990802303436</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.6424099121711334</v>
+        <v>-0.238051221524417</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.8828854372268115</v>
+        <v>-0.7073723162913494</v>
       </c>
     </row>
     <row r="43">
@@ -1029,13 +1029,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.2478046061717711</v>
+        <v>-0.6197958188389848</v>
       </c>
       <c r="C43" t="n">
-        <v>1.398737835320807</v>
+        <v>1.467817407394778</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.5157167816309898</v>
+        <v>0.3408567361360013</v>
       </c>
     </row>
     <row r="44">
@@ -1043,13 +1043,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.5135052646024084</v>
+        <v>-0.7513182764740332</v>
       </c>
       <c r="C44" t="n">
-        <v>2.061725463490224</v>
+        <v>-1.487683284688535</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.694158607145732</v>
+        <v>0.4878738126905923</v>
       </c>
     </row>
     <row r="45">
@@ -1057,13 +1057,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1.12889793543375</v>
+        <v>-1.83814915630928</v>
       </c>
       <c r="C45" t="n">
-        <v>0.2687622478650028</v>
+        <v>-0.5928241699114657</v>
       </c>
       <c r="D45" t="n">
-        <v>1.516799013693326</v>
+        <v>0.5588083468131637</v>
       </c>
     </row>
     <row r="46">
@@ -1071,13 +1071,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>-1.403335335965267</v>
+        <v>0.6269619610543815</v>
       </c>
       <c r="C46" t="n">
-        <v>0.6674341777641138</v>
+        <v>-0.9316668210699375</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.4355888970144277</v>
+        <v>-0.4171812988559063</v>
       </c>
     </row>
     <row r="47">
@@ -1085,13 +1085,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.3317078966096823</v>
+        <v>0.7605550078919553</v>
       </c>
       <c r="C47" t="n">
-        <v>0.6098813196731571</v>
+        <v>-0.5176700868804296</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.2257172042272951</v>
+        <v>0.01685214614018202</v>
       </c>
     </row>
     <row r="48">
@@ -1099,13 +1099,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.4117771849344453</v>
+        <v>0.1536846778741465</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.4868593884548229</v>
+        <v>0.9421932309012995</v>
       </c>
       <c r="D48" t="n">
-        <v>0.8576819219855041</v>
+        <v>-0.9727197327836722</v>
       </c>
     </row>
     <row r="49">
@@ -1113,13 +1113,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>-1.263827644713848</v>
+        <v>0.8033053584807883</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.3719130182884885</v>
+        <v>0.4852275333801151</v>
       </c>
       <c r="D49" t="n">
-        <v>-1.480374519951721</v>
+        <v>-0.9783591869480357</v>
       </c>
     </row>
     <row r="50">
@@ -1127,13 +1127,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>-1.967040900732699</v>
+        <v>-0.2952493748140151</v>
       </c>
       <c r="C50" t="n">
-        <v>0.2191905807341686</v>
+        <v>-0.6201991517167739</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9501837937007459</v>
+        <v>-1.214623290948303</v>
       </c>
     </row>
     <row r="51">
@@ -1141,13 +1141,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>-1.528031947643026</v>
+        <v>-0.4768495642481378</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.6268589450958483</v>
+        <v>0.5480604843759106</v>
       </c>
       <c r="D51" t="n">
-        <v>0.2794780483116842</v>
+        <v>0.8427083983985817</v>
       </c>
     </row>
     <row r="52">
@@ -1155,13 +1155,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.4918787352393985</v>
+        <v>-0.8885805429718555</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.4730143859841619</v>
+        <v>0.5481576392427572</v>
       </c>
       <c r="D52" t="n">
-        <v>0.4235276003655706</v>
+        <v>-0.9473035627460894</v>
       </c>
     </row>
     <row r="53">
@@ -1169,13 +1169,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.6771026641421092</v>
+        <v>0.5112726078240638</v>
       </c>
       <c r="C53" t="n">
-        <v>0.803186724245916</v>
+        <v>-0.2474992316590709</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.9340427951379515</v>
+        <v>-1.295862543313955</v>
       </c>
     </row>
     <row r="54">
@@ -1183,13 +1183,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.5349614394252562</v>
+        <v>-2.792660360844974</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.04468651251536222</v>
+        <v>0.7633795584035927</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.6518059949595728</v>
+        <v>-0.8670137984366078</v>
       </c>
     </row>
     <row r="55">
@@ -1197,13 +1197,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>-1.461646640118712</v>
+        <v>0.872242138515367</v>
       </c>
       <c r="C55" t="n">
-        <v>0.7640851721073899</v>
+        <v>-0.3216428294767875</v>
       </c>
       <c r="D55" t="n">
-        <v>0.3096690254456403</v>
+        <v>-0.5707429197220352</v>
       </c>
     </row>
     <row r="56">
@@ -1211,13 +1211,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.8393814910822827</v>
+        <v>-0.397833832947959</v>
       </c>
       <c r="C56" t="n">
-        <v>1.766920885271731</v>
+        <v>0.8687521231012073</v>
       </c>
       <c r="D56" t="n">
-        <v>-2.534012854827506</v>
+        <v>1.686111064086514</v>
       </c>
     </row>
     <row r="57">
@@ -1225,13 +1225,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.8786639539139319</v>
+        <v>-0.9194951114259955</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.09983951990588968</v>
+        <v>0.09474457031745623</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.9378031440300049</v>
+        <v>-0.1955391883588065</v>
       </c>
     </row>
     <row r="58">
@@ -1239,13 +1239,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.3759101282433977</v>
+        <v>1.745346150040396</v>
       </c>
       <c r="C58" t="n">
-        <v>0.1392608509246216</v>
+        <v>-0.4625857097441156</v>
       </c>
       <c r="D58" t="n">
-        <v>1.270268524655179</v>
+        <v>0.2247727633368327</v>
       </c>
     </row>
     <row r="59">
@@ -1253,13 +1253,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.2413743670468513</v>
+        <v>-0.4425502334311216</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.4660187087943758</v>
+        <v>-0.7294095058457044</v>
       </c>
       <c r="D59" t="n">
-        <v>1.156612536005885</v>
+        <v>0.6960516990065021</v>
       </c>
     </row>
     <row r="60">
@@ -1267,13 +1267,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>-1.804035135489626</v>
+        <v>-0.01136132040366555</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0249446685892777</v>
+        <v>0.4329401994843848</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0577968687924609</v>
+        <v>-0.2508571573425397</v>
       </c>
     </row>
     <row r="61">
@@ -1281,13 +1281,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.2042882404323308</v>
+        <v>0.6898316190344753</v>
       </c>
       <c r="C61" t="n">
-        <v>-0.653850068727021</v>
+        <v>-1.201547308308678</v>
       </c>
       <c r="D61" t="n">
-        <v>-1.561298356031715</v>
+        <v>0.1305690420663708</v>
       </c>
     </row>
     <row r="62">
@@ -1295,13 +1295,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.1678946829423515</v>
+        <v>0.3600198749025996</v>
       </c>
       <c r="C62" t="n">
-        <v>0.6036367583844967</v>
+        <v>0.9717777884622617</v>
       </c>
       <c r="D62" t="n">
-        <v>1.038623297673935</v>
+        <v>-0.292855101313562</v>
       </c>
     </row>
     <row r="63">
@@ -1309,13 +1309,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.3646277119983095</v>
+        <v>-0.3468783101996558</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.9252690143755342</v>
+        <v>-1.371790026452218</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.2828242508311886</v>
+        <v>-1.79961622446569</v>
       </c>
     </row>
     <row r="64">
@@ -1323,13 +1323,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.2904097768297736</v>
+        <v>-0.02112734146288017</v>
       </c>
       <c r="C64" t="n">
-        <v>-1.467615556497259</v>
+        <v>-0.5852039812107328</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.8397684769773509</v>
+        <v>0.05139653729739211</v>
       </c>
     </row>
     <row r="65">
@@ -1337,13 +1337,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.879249021866033</v>
+        <v>1.571287983661792</v>
       </c>
       <c r="C65" t="n">
-        <v>0.698597807641376</v>
+        <v>-0.8733812695076932</v>
       </c>
       <c r="D65" t="n">
-        <v>0.2899246053048963</v>
+        <v>0.6353824683693351</v>
       </c>
     </row>
     <row r="66">
@@ -1351,13 +1351,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.7242935147667594</v>
+        <v>0.06651277447420374</v>
       </c>
       <c r="C66" t="n">
-        <v>-1.259909532820947</v>
+        <v>-0.9641726881184907</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.5173841363739389</v>
+        <v>-1.102117127261617</v>
       </c>
     </row>
     <row r="67">
@@ -1365,13 +1365,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.01514578179219355</v>
+        <v>-0.7236969088516756</v>
       </c>
       <c r="C67" t="n">
-        <v>-1.476827874348585</v>
+        <v>0.5180268377098733</v>
       </c>
       <c r="D67" t="n">
-        <v>1.087588881051042</v>
+        <v>0.01936313722576198</v>
       </c>
     </row>
     <row r="68">
@@ -1379,13 +1379,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.1244836558461513</v>
+        <v>0.8093646493738972</v>
       </c>
       <c r="C68" t="n">
-        <v>0.991112033544977</v>
+        <v>-0.7382869786784496</v>
       </c>
       <c r="D68" t="n">
-        <v>0.3721233200776988</v>
+        <v>-0.9985309107767426</v>
       </c>
     </row>
     <row r="69">
@@ -1393,13 +1393,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>-1.53108653716818</v>
+        <v>-1.426662055361838</v>
       </c>
       <c r="C69" t="n">
-        <v>0.8061819920891612</v>
+        <v>0.5290418352749161</v>
       </c>
       <c r="D69" t="n">
-        <v>-1.101823747447369</v>
+        <v>0.8265594172922854</v>
       </c>
     </row>
     <row r="70">
@@ -1407,13 +1407,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>-0.6710659041870717</v>
+        <v>-1.104417469606111</v>
       </c>
       <c r="C70" t="n">
-        <v>-0.1110096786198046</v>
+        <v>-0.3591084506417817</v>
       </c>
       <c r="D70" t="n">
-        <v>0.2218377681320765</v>
+        <v>2.027772200825195</v>
       </c>
     </row>
     <row r="71">
@@ -1421,13 +1421,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1.011298894044757</v>
+        <v>-0.1796266031845718</v>
       </c>
       <c r="C71" t="n">
-        <v>0.3540997655171209</v>
+        <v>1.330174715521296</v>
       </c>
       <c r="D71" t="n">
-        <v>0.8023405299997366</v>
+        <v>1.098391357827474</v>
       </c>
     </row>
     <row r="72">
@@ -1435,13 +1435,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.2736571149541169</v>
+        <v>0.1163259600102411</v>
       </c>
       <c r="C72" t="n">
-        <v>-0.3472461009438174</v>
+        <v>-0.8384273761596835</v>
       </c>
       <c r="D72" t="n">
-        <v>0.1467244475784252</v>
+        <v>2.794303108443553</v>
       </c>
     </row>
     <row r="73">
@@ -1449,13 +1449,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>-0.4470806973983241</v>
+        <v>-1.066565461317255</v>
       </c>
       <c r="C73" t="n">
-        <v>-0.09563073229618954</v>
+        <v>0.4836540300230942</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.0979370473315129</v>
+        <v>-0.3662511011219594</v>
       </c>
     </row>
     <row r="74">
@@ -1463,13 +1463,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.2367453136561165</v>
+        <v>-1.245979546348479</v>
       </c>
       <c r="C74" t="n">
-        <v>0.7233707102304567</v>
+        <v>-0.4598028448448183</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.6706280444653908</v>
+        <v>-0.6039943574752374</v>
       </c>
     </row>
     <row r="75">
@@ -1477,13 +1477,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.9964181050955473</v>
+        <v>1.164539287058708</v>
       </c>
       <c r="C75" t="n">
-        <v>1.925588658259152</v>
+        <v>0.3826719909135013</v>
       </c>
       <c r="D75" t="n">
-        <v>0.4337806580724037</v>
+        <v>-0.3462924121082666</v>
       </c>
     </row>
     <row r="76">
@@ -1491,13 +1491,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>-0.1438884343551626</v>
+        <v>-0.1474419301832247</v>
       </c>
       <c r="C76" t="n">
-        <v>0.9311927857962243</v>
+        <v>-0.1625617716937814</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.4620162922008031</v>
+        <v>0.8293242996757259</v>
       </c>
     </row>
     <row r="77">
@@ -1505,13 +1505,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>-2.860580768199365</v>
+        <v>-0.6578934910192075</v>
       </c>
       <c r="C77" t="n">
-        <v>-1.232700212066082</v>
+        <v>-0.1692215940802867</v>
       </c>
       <c r="D77" t="n">
-        <v>0.004005238887743951</v>
+        <v>0.104387202605318</v>
       </c>
     </row>
     <row r="78">
@@ -1519,13 +1519,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>-0.08767475188738207</v>
+        <v>-1.650159746515997</v>
       </c>
       <c r="C78" t="n">
-        <v>0.4388604205340009</v>
+        <v>-1.036747704050605</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.5330456733614511</v>
+        <v>0.5684010719652602</v>
       </c>
     </row>
     <row r="79">
@@ -1533,13 +1533,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>-0.3354980607487779</v>
+        <v>-0.4531960969274944</v>
       </c>
       <c r="C79" t="n">
-        <v>0.751013214260432</v>
+        <v>0.4506108503739512</v>
       </c>
       <c r="D79" t="n">
-        <v>0.4867142860677153</v>
+        <v>-1.067255246391655</v>
       </c>
     </row>
     <row r="80">
@@ -1547,13 +1547,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.7419708336499639</v>
+        <v>-0.5840031859227208</v>
       </c>
       <c r="C80" t="n">
-        <v>0.1633518514501182</v>
+        <v>-0.2291247154496859</v>
       </c>
       <c r="D80" t="n">
-        <v>0.4063785824614371</v>
+        <v>-2.850667060828782</v>
       </c>
     </row>
     <row r="81">
@@ -1561,13 +1561,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.5499168616110371</v>
+        <v>0.5602796553137269</v>
       </c>
       <c r="C81" t="n">
-        <v>0.9409782007850948</v>
+        <v>-0.7859741749350065</v>
       </c>
       <c r="D81" t="n">
-        <v>2.063361660278011</v>
+        <v>-0.4497589048448456</v>
       </c>
     </row>
     <row r="82">
@@ -1575,13 +1575,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>-0.1673611806784816</v>
+        <v>-0.1048824155124103</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.6848017179973226</v>
+        <v>-1.582589585490728</v>
       </c>
       <c r="D82" t="n">
-        <v>0.248777380406703</v>
+        <v>0.5893160221701542</v>
       </c>
     </row>
     <row r="83">
@@ -1589,13 +1589,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>-1.213033245838053</v>
+        <v>-0.3695712533466156</v>
       </c>
       <c r="C83" t="n">
-        <v>0.2062222382066508</v>
+        <v>1.151002862955954</v>
       </c>
       <c r="D83" t="n">
-        <v>-2.296718692038225</v>
+        <v>0.6913260891451001</v>
       </c>
     </row>
     <row r="84">
@@ -1603,13 +1603,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.8618785187581539</v>
+        <v>-1.694858586770176</v>
       </c>
       <c r="C84" t="n">
-        <v>0.02958034898082285</v>
+        <v>-0.1995083127538298</v>
       </c>
       <c r="D84" t="n">
-        <v>1.595412626029505</v>
+        <v>1.540464731303131</v>
       </c>
     </row>
     <row r="85">
@@ -1617,13 +1617,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>-0.6470480639897861</v>
+        <v>-0.8481132293729127</v>
       </c>
       <c r="C85" t="n">
-        <v>0.9248614429429953</v>
+        <v>0.4162736516465901</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.6037670421541593</v>
+        <v>0.4203652766351953</v>
       </c>
     </row>
     <row r="86">
@@ -1631,13 +1631,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1.171579551547028</v>
+        <v>-1.192734023213433</v>
       </c>
       <c r="C86" t="n">
-        <v>1.262672542138891</v>
+        <v>-0.03024145685176321</v>
       </c>
       <c r="D86" t="n">
-        <v>1.859458876313655</v>
+        <v>-0.6860676019754387</v>
       </c>
     </row>
     <row r="87">
@@ -1645,13 +1645,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1.508528895531493</v>
+        <v>0.6060743797931717</v>
       </c>
       <c r="C87" t="n">
-        <v>-1.639503087388913</v>
+        <v>0.1616235825204377</v>
       </c>
       <c r="D87" t="n">
-        <v>0.9807483371961432</v>
+        <v>0.05275768861856696</v>
       </c>
     </row>
     <row r="88">
@@ -1659,13 +1659,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.6342159031053027</v>
+        <v>-2.088477238677382</v>
       </c>
       <c r="C88" t="n">
-        <v>-0.8514302763647652</v>
+        <v>-1.160950859531625</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.02028943837130988</v>
+        <v>-0.1461760935104512</v>
       </c>
     </row>
     <row r="89">
@@ -1673,13 +1673,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>-0.8913294127400914</v>
+        <v>-2.348174366265761</v>
       </c>
       <c r="C89" t="n">
-        <v>-0.2758722273289514</v>
+        <v>0.1276767058513906</v>
       </c>
       <c r="D89" t="n">
-        <v>1.059080962929371</v>
+        <v>1.766956833594196</v>
       </c>
     </row>
     <row r="90">
@@ -1687,13 +1687,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>-2.338248837518056</v>
+        <v>1.655122198282242</v>
       </c>
       <c r="C90" t="n">
-        <v>0.6432180789311225</v>
+        <v>0.4706702585121492</v>
       </c>
       <c r="D90" t="n">
-        <v>0.9768765485135597</v>
+        <v>0.3840146735848178</v>
       </c>
     </row>
     <row r="91">
@@ -1701,13 +1701,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.4301558389199536</v>
+        <v>0.02296186176585649</v>
       </c>
       <c r="C91" t="n">
-        <v>-0.3996752655664916</v>
+        <v>0.297175491925071</v>
       </c>
       <c r="D91" t="n">
-        <v>0.3586525362154593</v>
+        <v>0.6226131344064361</v>
       </c>
     </row>
     <row r="92">
@@ -1715,13 +1715,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>-0.5685226871944186</v>
+        <v>0.4867246670818035</v>
       </c>
       <c r="C92" t="n">
-        <v>1.266975638287064</v>
+        <v>-0.6837717703953407</v>
       </c>
       <c r="D92" t="n">
-        <v>0.6743539769803855</v>
+        <v>-0.7285138764543286</v>
       </c>
     </row>
     <row r="93">
@@ -1729,13 +1729,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>-0.1969045422267567</v>
+        <v>1.534345877969406</v>
       </c>
       <c r="C93" t="n">
-        <v>-0.2093046929114193</v>
+        <v>-0.3627836346475413</v>
       </c>
       <c r="D93" t="n">
-        <v>1.892329499691335</v>
+        <v>0.3328516552882262</v>
       </c>
     </row>
     <row r="94">
@@ -1743,13 +1743,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.6794354358450434</v>
+        <v>-1.120028390696127</v>
       </c>
       <c r="C94" t="n">
-        <v>1.657522608155525</v>
+        <v>2.64953750663472</v>
       </c>
       <c r="D94" t="n">
-        <v>0.04464835779837157</v>
+        <v>-0.09074037953048869</v>
       </c>
     </row>
     <row r="95">
@@ -1757,13 +1757,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>-0.2995219858811104</v>
+        <v>-1.878551522494616</v>
       </c>
       <c r="C95" t="n">
-        <v>-1.127465220335562</v>
+        <v>0.1306243403298743</v>
       </c>
       <c r="D95" t="n">
-        <v>-0.5441001925549839</v>
+        <v>-0.2924775511174132</v>
       </c>
     </row>
     <row r="96">
@@ -1771,13 +1771,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>-0.4364610661390102</v>
+        <v>-0.1478551163928349</v>
       </c>
       <c r="C96" t="n">
-        <v>-0.06221461996392972</v>
+        <v>0.9362507431722803</v>
       </c>
       <c r="D96" t="n">
-        <v>2.168993971684016</v>
+        <v>-0.8165164970073764</v>
       </c>
     </row>
     <row r="97">
@@ -1785,13 +1785,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>-1.39591242629506</v>
+        <v>0.5765830557501859</v>
       </c>
       <c r="C97" t="n">
-        <v>0.6679974498908253</v>
+        <v>2.304367650662792</v>
       </c>
       <c r="D97" t="n">
-        <v>-1.029676018265524</v>
+        <v>0.2958872123409468</v>
       </c>
     </row>
     <row r="98">
@@ -1799,13 +1799,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>-1.213663144650226</v>
+        <v>0.1256707459341789</v>
       </c>
       <c r="C98" t="n">
-        <v>-0.5207432534099755</v>
+        <v>-1.328536506191455</v>
       </c>
       <c r="D98" t="n">
-        <v>1.520257126895312</v>
+        <v>-0.7359468557330021</v>
       </c>
     </row>
     <row r="99">
@@ -1813,13 +1813,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>-0.158162212535663</v>
+        <v>0.4719821980656062</v>
       </c>
       <c r="C99" t="n">
-        <v>-0.360602427149851</v>
+        <v>-1.457977738547596</v>
       </c>
       <c r="D99" t="n">
-        <v>0.3408060456578253</v>
+        <v>1.138408350414162</v>
       </c>
     </row>
     <row r="100">
@@ -1827,13 +1827,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>1.402364768380582</v>
+        <v>0.6931736431824805</v>
       </c>
       <c r="C100" t="n">
-        <v>-1.491331755892146</v>
+        <v>1.346680229587602</v>
       </c>
       <c r="D100" t="n">
-        <v>0.3434212492611526</v>
+        <v>0.2384634787560657</v>
       </c>
     </row>
     <row r="101">
@@ -1841,13 +1841,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>-0.5158502849646054</v>
+        <v>0.7656849555932562</v>
       </c>
       <c r="C101" t="n">
-        <v>0.8876294087533116</v>
+        <v>1.247574346561483</v>
       </c>
       <c r="D101" t="n">
-        <v>0.2690719435733365</v>
+        <v>-1.209407504794759</v>
       </c>
     </row>
   </sheetData>
